--- a/style_base_v2_export.xlsx
+++ b/style_base_v2_export.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FCCC68-796F-3547-B240-F2279E2C9F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B822DC8D-B11A-4B7A-A628-A6245D1E81D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="30000" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapStyle" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="1103">
   <si>
     <t>id_legacy</t>
   </si>
@@ -2025,12 +2025,6 @@
     <t>skiing-line-base-bicycle_ok</t>
   </si>
   <si>
-    <t>skiing</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>skiing-line-base-lipas</t>
   </si>
   <si>
@@ -3342,7 +3336,7 @@
     <t>poi_separate-car_parking-label-(poi_osm-all-osm)</t>
   </si>
   <si>
-    <t>piste_bicycle</t>
+    <t>line_base_bicycle_ok</t>
   </si>
 </sst>
 </file>
@@ -3362,20 +3356,17 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3744,11 +3735,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="H325" sqref="H325"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="3" width="50" customWidth="1"/>
@@ -3764,7 +3756,7 @@
     <col min="20" max="20" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +3821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3875,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3924,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3973,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -4025,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4074,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4123,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4172,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -4221,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -4270,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4319,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -4368,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -4417,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -4466,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -4515,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4564,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -4613,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -4662,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -4711,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4760,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -4809,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -4858,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -4910,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4959,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -5011,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -5060,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -5109,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -5158,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -5207,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -5256,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -5305,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -5354,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -5403,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -5452,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -5501,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -5550,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -5599,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -5651,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -5700,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>141</v>
       </c>
@@ -5752,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -5801,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -5853,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -5902,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -5954,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -6003,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -6052,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -6101,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -6150,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -6199,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -6248,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -6297,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -6346,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -6398,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -6450,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -6499,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>185</v>
       </c>
@@ -6548,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -6597,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -6646,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -6698,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -6750,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>200</v>
       </c>
@@ -6805,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -6857,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -6909,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -6964,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7016,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -7065,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>216</v>
       </c>
@@ -7114,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>219</v>
       </c>
@@ -7160,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -7212,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>226</v>
       </c>
@@ -7264,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>229</v>
       </c>
@@ -7316,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -7368,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -7420,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -7472,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>241</v>
       </c>
@@ -7524,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>244</v>
       </c>
@@ -7576,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>247</v>
       </c>
@@ -7628,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>250</v>
       </c>
@@ -7680,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>253</v>
       </c>
@@ -7732,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>256</v>
       </c>
@@ -7784,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>258</v>
       </c>
@@ -7836,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -7888,7 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>262</v>
       </c>
@@ -7940,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>264</v>
       </c>
@@ -7992,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>266</v>
       </c>
@@ -8044,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -8096,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>270</v>
       </c>
@@ -8148,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>272</v>
       </c>
@@ -8197,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>274</v>
       </c>
@@ -8246,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>278</v>
       </c>
@@ -8298,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>282</v>
       </c>
@@ -8350,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>285</v>
       </c>
@@ -8399,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>287</v>
       </c>
@@ -8451,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>289</v>
       </c>
@@ -8503,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>291</v>
       </c>
@@ -8552,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -8601,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>296</v>
       </c>
@@ -8650,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>299</v>
       </c>
@@ -8699,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>301</v>
       </c>
@@ -8751,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>305</v>
       </c>
@@ -8803,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>308</v>
       </c>
@@ -8852,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>311</v>
       </c>
@@ -8904,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>313</v>
       </c>
@@ -8956,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>315</v>
       </c>
@@ -9005,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -9054,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>321</v>
       </c>
@@ -9100,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>325</v>
       </c>
@@ -9149,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>329</v>
       </c>
@@ -9198,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -9250,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>337</v>
       </c>
@@ -9302,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>340</v>
       </c>
@@ -9354,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>343</v>
       </c>
@@ -9406,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>347</v>
       </c>
@@ -9461,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>349</v>
       </c>
@@ -9513,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>352</v>
       </c>
@@ -9568,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>354</v>
       </c>
@@ -9620,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>357</v>
       </c>
@@ -9675,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>359</v>
       </c>
@@ -9727,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>361</v>
       </c>
@@ -9782,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>363</v>
       </c>
@@ -9834,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>365</v>
       </c>
@@ -9889,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>367</v>
       </c>
@@ -9941,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>369</v>
       </c>
@@ -9993,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>371</v>
       </c>
@@ -10048,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -10100,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>375</v>
       </c>
@@ -10152,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>379</v>
       </c>
@@ -10204,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>381</v>
       </c>
@@ -10256,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>383</v>
       </c>
@@ -10311,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>385</v>
       </c>
@@ -10363,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>387</v>
       </c>
@@ -10415,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>391</v>
       </c>
@@ -10467,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>394</v>
       </c>
@@ -10519,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>397</v>
       </c>
@@ -10571,7 +10563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>400</v>
       </c>
@@ -10626,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>402</v>
       </c>
@@ -10678,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>404</v>
       </c>
@@ -10730,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -10782,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>410</v>
       </c>
@@ -10834,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -10889,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>416</v>
       </c>
@@ -10941,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>418</v>
       </c>
@@ -10993,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>421</v>
       </c>
@@ -11042,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>424</v>
       </c>
@@ -11094,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>427</v>
       </c>
@@ -11146,7 +11138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>429</v>
       </c>
@@ -11201,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>431</v>
       </c>
@@ -11256,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>433</v>
       </c>
@@ -11308,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>435</v>
       </c>
@@ -11360,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>437</v>
       </c>
@@ -11412,7 +11404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>440</v>
       </c>
@@ -11467,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>442</v>
       </c>
@@ -11519,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>446</v>
       </c>
@@ -11574,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>448</v>
       </c>
@@ -11626,7 +11618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>451</v>
       </c>
@@ -11681,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>453</v>
       </c>
@@ -11730,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -11782,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
@@ -11834,7 +11826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>460</v>
       </c>
@@ -11889,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>462</v>
       </c>
@@ -11941,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>465</v>
       </c>
@@ -11996,7 +11988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>467</v>
       </c>
@@ -12048,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>469</v>
       </c>
@@ -12100,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>471</v>
       </c>
@@ -12155,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>473</v>
       </c>
@@ -12207,7 +12199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>475</v>
       </c>
@@ -12259,7 +12251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>478</v>
       </c>
@@ -12311,7 +12303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>481</v>
       </c>
@@ -12363,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>484</v>
       </c>
@@ -12415,7 +12407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>487</v>
       </c>
@@ -12467,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>489</v>
       </c>
@@ -12522,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>491</v>
       </c>
@@ -12574,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -12626,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>495</v>
       </c>
@@ -12678,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>497</v>
       </c>
@@ -12730,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>499</v>
       </c>
@@ -12782,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>502</v>
       </c>
@@ -12837,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>504</v>
       </c>
@@ -12889,7 +12881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>506</v>
       </c>
@@ -12941,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>508</v>
       </c>
@@ -12993,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>510</v>
       </c>
@@ -13045,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>512</v>
       </c>
@@ -13097,7 +13089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>515</v>
       </c>
@@ -13152,7 +13144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>517</v>
       </c>
@@ -13201,7 +13193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>520</v>
       </c>
@@ -13253,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>522</v>
       </c>
@@ -13308,7 +13300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>524</v>
       </c>
@@ -13360,7 +13352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>527</v>
       </c>
@@ -13412,7 +13404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>530</v>
       </c>
@@ -13464,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>532</v>
       </c>
@@ -13516,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>534</v>
       </c>
@@ -13568,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>537</v>
       </c>
@@ -13623,7 +13615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>539</v>
       </c>
@@ -13675,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>541</v>
       </c>
@@ -13727,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>543</v>
       </c>
@@ -13779,7 +13771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>546</v>
       </c>
@@ -13834,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>548</v>
       </c>
@@ -13886,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>550</v>
       </c>
@@ -13938,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>552</v>
       </c>
@@ -13990,7 +13982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>554</v>
       </c>
@@ -14045,7 +14037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>556</v>
       </c>
@@ -14097,7 +14089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>558</v>
       </c>
@@ -14149,7 +14141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>560</v>
       </c>
@@ -14204,7 +14196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>562</v>
       </c>
@@ -14256,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>564</v>
       </c>
@@ -14311,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>566</v>
       </c>
@@ -14363,7 +14355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>568</v>
       </c>
@@ -14415,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>570</v>
       </c>
@@ -14470,7 +14462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>572</v>
       </c>
@@ -14522,7 +14514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>574</v>
       </c>
@@ -14574,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>576</v>
       </c>
@@ -14626,7 +14618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>578</v>
       </c>
@@ -14678,7 +14670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>580</v>
       </c>
@@ -14730,7 +14722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>582</v>
       </c>
@@ -14782,7 +14774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>584</v>
       </c>
@@ -14834,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>586</v>
       </c>
@@ -14886,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>588</v>
       </c>
@@ -14938,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>590</v>
       </c>
@@ -14990,7 +14982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>592</v>
       </c>
@@ -15045,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>594</v>
       </c>
@@ -15097,7 +15089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>596</v>
       </c>
@@ -15149,7 +15141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>598</v>
       </c>
@@ -15201,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>600</v>
       </c>
@@ -15256,7 +15248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>602</v>
       </c>
@@ -15308,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>604</v>
       </c>
@@ -15360,7 +15352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>606</v>
       </c>
@@ -15412,7 +15404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>608</v>
       </c>
@@ -15467,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>610</v>
       </c>
@@ -15519,7 +15511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>612</v>
       </c>
@@ -15571,7 +15563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>614</v>
       </c>
@@ -15623,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>616</v>
       </c>
@@ -15678,7 +15670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>618</v>
       </c>
@@ -15730,7 +15722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>620</v>
       </c>
@@ -15782,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>623</v>
       </c>
@@ -15837,7 +15829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>625</v>
       </c>
@@ -15889,7 +15881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>628</v>
       </c>
@@ -15944,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>630</v>
       </c>
@@ -15996,7 +15988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>633</v>
       </c>
@@ -16051,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>635</v>
       </c>
@@ -16103,7 +16095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>637</v>
       </c>
@@ -16155,7 +16147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>640</v>
       </c>
@@ -16210,7 +16202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>642</v>
       </c>
@@ -16262,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>644</v>
       </c>
@@ -16314,7 +16306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>647</v>
       </c>
@@ -16369,7 +16361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>649</v>
       </c>
@@ -16421,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>651</v>
       </c>
@@ -16473,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>654</v>
       </c>
@@ -16525,7 +16517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>658</v>
       </c>
@@ -16577,7 +16569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>661</v>
       </c>
@@ -16629,26 +16621,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>664</v>
+      </c>
       <c r="B250" t="s">
         <v>664</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="0"/>
-        <v>skiing-line-base-(wnt-all-osm)</v>
+        <v>piste-trail_ski-line_base_bicycle_ok-(wnt-all-osm)</v>
       </c>
       <c r="D250" s="1" t="str">
         <f t="shared" si="1"/>
         <v>NEW</v>
       </c>
       <c r="F250" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="G250" t="s">
-        <v>215</v>
+        <v>657</v>
       </c>
       <c r="H250" t="s">
-        <v>666</v>
+        <v>1102</v>
       </c>
       <c r="I250" t="s">
         <v>378</v>
@@ -16678,12 +16673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B251" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="0"/>
@@ -16730,12 +16725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B252" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="0"/>
@@ -16752,7 +16747,7 @@
         <v>657</v>
       </c>
       <c r="H252" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I252" t="s">
         <v>378</v>
@@ -16782,12 +16777,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B253" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="0"/>
@@ -16804,7 +16799,7 @@
         <v>657</v>
       </c>
       <c r="H253" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I253" t="s">
         <v>378</v>
@@ -16834,12 +16829,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B254" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="0"/>
@@ -16856,7 +16851,7 @@
         <v>657</v>
       </c>
       <c r="H254" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I254" t="s">
         <v>378</v>
@@ -16886,12 +16881,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B255" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="0"/>
@@ -16905,7 +16900,7 @@
         <v>656</v>
       </c>
       <c r="G255" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H255" t="s">
         <v>225</v>
@@ -16938,12 +16933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B256" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="0"/>
@@ -16957,7 +16952,7 @@
         <v>656</v>
       </c>
       <c r="G256" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H256" t="s">
         <v>215</v>
@@ -16990,12 +16985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B257" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" ref="C257:C430" si="2">_xlfn.CONCAT(F257,IF(NOT(ISBLANK(G257)),"-",""),G257,IF(NOT(ISBLANK(H257)),"-",""),H257,"-(",I257,"-",J257,"-",K257,IF(NOT(ISBLANK(L257)),"-hc",""),")")</f>
@@ -17006,10 +17001,10 @@
         <v/>
       </c>
       <c r="F257" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G257" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I257" t="s">
         <v>21</v>
@@ -17039,12 +17034,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B258" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="2"/>
@@ -17055,10 +17050,10 @@
         <v/>
       </c>
       <c r="F258" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G258" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I258" t="s">
         <v>21</v>
@@ -17091,12 +17086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B259" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="2"/>
@@ -17107,10 +17102,10 @@
         <v/>
       </c>
       <c r="F259" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G259" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I259" t="s">
         <v>21</v>
@@ -17140,12 +17135,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B260" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="2"/>
@@ -17156,10 +17151,10 @@
         <v/>
       </c>
       <c r="F260" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G260" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I260" t="s">
         <v>21</v>
@@ -17192,12 +17187,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B261" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="2"/>
@@ -17211,7 +17206,7 @@
         <v>60</v>
       </c>
       <c r="G261" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H261" t="s">
         <v>225</v>
@@ -17244,12 +17239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B262" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="2"/>
@@ -17263,7 +17258,7 @@
         <v>60</v>
       </c>
       <c r="G262" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H262" t="s">
         <v>215</v>
@@ -17296,12 +17291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B263" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="2"/>
@@ -17348,12 +17343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B264" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="2"/>
@@ -17400,12 +17395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B265" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="2"/>
@@ -17419,7 +17414,7 @@
         <v>60</v>
       </c>
       <c r="G265" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H265" t="s">
         <v>225</v>
@@ -17452,12 +17447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B266" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="2"/>
@@ -17471,7 +17466,7 @@
         <v>60</v>
       </c>
       <c r="G266" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H266" t="s">
         <v>215</v>
@@ -17504,12 +17499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B267" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="2"/>
@@ -17520,7 +17515,7 @@
         <v/>
       </c>
       <c r="F267" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G267" t="s">
         <v>228</v>
@@ -17556,12 +17551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B268" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="2"/>
@@ -17572,7 +17567,7 @@
         <v/>
       </c>
       <c r="F268" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G268" t="s">
         <v>228</v>
@@ -17611,12 +17606,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B269" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="2"/>
@@ -17627,7 +17622,7 @@
         <v/>
       </c>
       <c r="F269" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G269" t="s">
         <v>464</v>
@@ -17663,12 +17658,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B270" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="2"/>
@@ -17679,7 +17674,7 @@
         <v/>
       </c>
       <c r="F270" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G270" t="s">
         <v>464</v>
@@ -17718,12 +17713,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B271" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="2"/>
@@ -17734,7 +17729,7 @@
         <v/>
       </c>
       <c r="F271" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G271" t="s">
         <v>464</v>
@@ -17770,12 +17765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B272" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="2"/>
@@ -17786,7 +17781,7 @@
         <v/>
       </c>
       <c r="F272" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G272" t="s">
         <v>237</v>
@@ -17822,12 +17817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B273" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="2"/>
@@ -17838,7 +17833,7 @@
         <v/>
       </c>
       <c r="F273" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G273" t="s">
         <v>237</v>
@@ -17877,12 +17872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B274" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="2"/>
@@ -17893,7 +17888,7 @@
         <v/>
       </c>
       <c r="F274" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G274" t="s">
         <v>526</v>
@@ -17929,12 +17924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B275" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="2"/>
@@ -17945,7 +17940,7 @@
         <v/>
       </c>
       <c r="F275" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G275" t="s">
         <v>529</v>
@@ -17981,12 +17976,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B276" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="2"/>
@@ -17997,7 +17992,7 @@
         <v/>
       </c>
       <c r="F276" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G276" t="s">
         <v>240</v>
@@ -18033,12 +18028,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B277" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="2"/>
@@ -18049,7 +18044,7 @@
         <v/>
       </c>
       <c r="F277" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G277" t="s">
         <v>240</v>
@@ -18088,12 +18083,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B278" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="2"/>
@@ -18104,7 +18099,7 @@
         <v/>
       </c>
       <c r="F278" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G278" t="s">
         <v>240</v>
@@ -18140,12 +18135,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B279" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="2"/>
@@ -18156,7 +18151,7 @@
         <v/>
       </c>
       <c r="F279" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G279" t="s">
         <v>243</v>
@@ -18192,12 +18187,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B280" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="2"/>
@@ -18208,7 +18203,7 @@
         <v/>
       </c>
       <c r="F280" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G280" t="s">
         <v>243</v>
@@ -18247,12 +18242,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B281" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="2"/>
@@ -18263,7 +18258,7 @@
         <v/>
       </c>
       <c r="F281" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G281" t="s">
         <v>231</v>
@@ -18299,12 +18294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B282" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="2"/>
@@ -18315,10 +18310,10 @@
         <v/>
       </c>
       <c r="F282" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G282" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H282" t="s">
         <v>225</v>
@@ -18351,12 +18346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B283" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="2"/>
@@ -18367,13 +18362,13 @@
         <v/>
       </c>
       <c r="F283" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G283" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H283" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I283" t="s">
         <v>21</v>
@@ -18403,12 +18398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B284" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="2"/>
@@ -18419,13 +18414,13 @@
         <v/>
       </c>
       <c r="F284" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G284" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H284" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I284" t="s">
         <v>21</v>
@@ -18458,12 +18453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B285" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="2"/>
@@ -18474,13 +18469,13 @@
         <v/>
       </c>
       <c r="F285" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G285" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H285" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I285" t="s">
         <v>21</v>
@@ -18510,12 +18505,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B286" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="2"/>
@@ -18526,13 +18521,13 @@
         <v/>
       </c>
       <c r="F286" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G286" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H286" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I286" t="s">
         <v>21</v>
@@ -18565,12 +18560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B287" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="2"/>
@@ -18581,7 +18576,7 @@
         <v/>
       </c>
       <c r="F287" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G287" t="s">
         <v>249</v>
@@ -18617,12 +18612,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B288" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="2"/>
@@ -18633,7 +18628,7 @@
         <v/>
       </c>
       <c r="F288" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G288" t="s">
         <v>249</v>
@@ -18672,12 +18667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B289" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="2"/>
@@ -18688,7 +18683,7 @@
         <v/>
       </c>
       <c r="F289" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G289" t="s">
         <v>249</v>
@@ -18724,12 +18719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B290" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="2"/>
@@ -18740,7 +18735,7 @@
         <v/>
       </c>
       <c r="F290" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G290" t="s">
         <v>377</v>
@@ -18776,12 +18771,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B291" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="2"/>
@@ -18792,7 +18787,7 @@
         <v/>
       </c>
       <c r="F291" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G291" t="s">
         <v>255</v>
@@ -18828,12 +18823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B292" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="2"/>
@@ -18844,7 +18839,7 @@
         <v/>
       </c>
       <c r="F292" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G292" t="s">
         <v>255</v>
@@ -18880,12 +18875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B293" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="2"/>
@@ -18896,7 +18891,7 @@
         <v/>
       </c>
       <c r="F293" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G293" t="s">
         <v>249</v>
@@ -18932,12 +18927,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B294" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="2"/>
@@ -18948,7 +18943,7 @@
         <v/>
       </c>
       <c r="F294" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G294" t="s">
         <v>249</v>
@@ -18987,12 +18982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B295" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="2"/>
@@ -19003,7 +18998,7 @@
         <v/>
       </c>
       <c r="F295" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G295" t="s">
         <v>255</v>
@@ -19039,12 +19034,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B296" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="2"/>
@@ -19055,7 +19050,7 @@
         <v/>
       </c>
       <c r="F296" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G296" t="s">
         <v>255</v>
@@ -19094,12 +19089,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B297" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="2"/>
@@ -19110,7 +19105,7 @@
         <v/>
       </c>
       <c r="F297" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G297" t="s">
         <v>439</v>
@@ -19146,12 +19141,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B298" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="2"/>
@@ -19162,7 +19157,7 @@
         <v/>
       </c>
       <c r="F298" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G298" t="s">
         <v>439</v>
@@ -19201,12 +19196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B299" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="2"/>
@@ -19217,7 +19212,7 @@
         <v/>
       </c>
       <c r="F299" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G299" t="s">
         <v>246</v>
@@ -19253,12 +19248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B300" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="2"/>
@@ -19269,7 +19264,7 @@
         <v/>
       </c>
       <c r="F300" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G300" t="s">
         <v>246</v>
@@ -19308,12 +19303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B301" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="2"/>
@@ -19324,7 +19319,7 @@
         <v/>
       </c>
       <c r="F301" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G301" t="s">
         <v>246</v>
@@ -19360,12 +19355,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B302" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="2"/>
@@ -19376,7 +19371,7 @@
         <v/>
       </c>
       <c r="F302" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G302" t="s">
         <v>246</v>
@@ -19415,12 +19410,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B303" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="2"/>
@@ -19431,7 +19426,7 @@
         <v/>
       </c>
       <c r="F303" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G303" t="s">
         <v>246</v>
@@ -19467,12 +19462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B304" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="2"/>
@@ -19483,7 +19478,7 @@
         <v/>
       </c>
       <c r="F304" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G304" t="s">
         <v>246</v>
@@ -19522,12 +19517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B305" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="2"/>
@@ -19538,7 +19533,7 @@
         <v/>
       </c>
       <c r="F305" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G305" t="s">
         <v>228</v>
@@ -19574,12 +19569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B306" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="2"/>
@@ -19590,7 +19585,7 @@
         <v/>
       </c>
       <c r="F306" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G306" t="s">
         <v>228</v>
@@ -19629,12 +19624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B307" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="2"/>
@@ -19645,7 +19640,7 @@
         <v/>
       </c>
       <c r="F307" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G307" t="s">
         <v>464</v>
@@ -19681,12 +19676,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B308" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="2"/>
@@ -19697,7 +19692,7 @@
         <v/>
       </c>
       <c r="F308" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G308" t="s">
         <v>464</v>
@@ -19736,12 +19731,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B309" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="2"/>
@@ -19752,7 +19747,7 @@
         <v/>
       </c>
       <c r="F309" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G309" t="s">
         <v>464</v>
@@ -19788,12 +19783,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B310" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="2"/>
@@ -19804,7 +19799,7 @@
         <v/>
       </c>
       <c r="F310" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G310" t="s">
         <v>231</v>
@@ -19840,12 +19835,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B311" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="2"/>
@@ -19856,7 +19851,7 @@
         <v/>
       </c>
       <c r="F311" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G311" t="s">
         <v>237</v>
@@ -19892,12 +19887,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B312" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="2"/>
@@ -19908,7 +19903,7 @@
         <v/>
       </c>
       <c r="F312" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G312" t="s">
         <v>237</v>
@@ -19947,12 +19942,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B313" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="2"/>
@@ -19963,7 +19958,7 @@
         <v/>
       </c>
       <c r="F313" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G313" t="s">
         <v>526</v>
@@ -19999,12 +19994,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B314" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="2"/>
@@ -20015,7 +20010,7 @@
         <v/>
       </c>
       <c r="F314" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G314" t="s">
         <v>529</v>
@@ -20051,12 +20046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="2"/>
@@ -20067,7 +20062,7 @@
         <v/>
       </c>
       <c r="F315" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G315" t="s">
         <v>240</v>
@@ -20103,12 +20098,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B316" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="2"/>
@@ -20119,7 +20114,7 @@
         <v/>
       </c>
       <c r="F316" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G316" t="s">
         <v>240</v>
@@ -20158,12 +20153,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B317" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="2"/>
@@ -20174,7 +20169,7 @@
         <v/>
       </c>
       <c r="F317" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G317" t="s">
         <v>240</v>
@@ -20210,12 +20205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B318" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="2"/>
@@ -20226,7 +20221,7 @@
         <v/>
       </c>
       <c r="F318" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G318" t="s">
         <v>243</v>
@@ -20262,12 +20257,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B319" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="2"/>
@@ -20278,7 +20273,7 @@
         <v/>
       </c>
       <c r="F319" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G319" t="s">
         <v>243</v>
@@ -20317,12 +20312,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B320" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="2"/>
@@ -20336,10 +20331,10 @@
         <v>331</v>
       </c>
       <c r="G320" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H320" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I320" t="s">
         <v>21</v>
@@ -20369,23 +20364,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>821</v>
+      </c>
       <c r="B321" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="2"/>
-        <v>bridge-piste_bicycle-case-(wnt-all-osm)</v>
+        <v>bridge_piste-bicycle-case-(wnt-all-osm)</v>
       </c>
       <c r="D321" s="1" t="str">
         <f t="shared" si="3"/>
         <v>NEW</v>
       </c>
       <c r="F321" t="s">
-        <v>710</v>
+        <v>825</v>
       </c>
       <c r="G321" t="s">
-        <v>1104</v>
+        <v>346</v>
       </c>
       <c r="H321" t="s">
         <v>225</v>
@@ -20415,26 +20413,29 @@
         <v>0</v>
       </c>
       <c r="S321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>822</v>
+      </c>
       <c r="B322" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" si="2"/>
-        <v>bridge-piste_bicycle-line-(wnt-all-osm)</v>
+        <v>bridge_piste-bicycle-line-(wnt-all-osm)</v>
       </c>
       <c r="D322" s="1" t="str">
         <f t="shared" si="3"/>
         <v>NEW</v>
       </c>
       <c r="F322" t="s">
-        <v>710</v>
+        <v>825</v>
       </c>
       <c r="G322" t="s">
-        <v>1104</v>
+        <v>346</v>
       </c>
       <c r="H322" t="s">
         <v>215</v>
@@ -20464,15 +20465,15 @@
         <v>0</v>
       </c>
       <c r="S322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B323" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="2"/>
@@ -20483,7 +20484,7 @@
         <v/>
       </c>
       <c r="F323" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G323" t="s">
         <v>657</v>
@@ -20519,12 +20520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B324" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="2"/>
@@ -20535,7 +20536,7 @@
         <v/>
       </c>
       <c r="F324" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G324" t="s">
         <v>657</v>
@@ -20571,26 +20572,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>828</v>
+      </c>
       <c r="B325" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="2"/>
-        <v>bridge-skiing-line-(wnt-all-osm)</v>
+        <v>bridge_piste-trail_ski-line_base_bicycle_ok-(wnt-all-osm)</v>
       </c>
       <c r="D325" s="1" t="str">
         <f t="shared" si="3"/>
         <v>NEW</v>
       </c>
       <c r="F325" t="s">
-        <v>710</v>
+        <v>825</v>
       </c>
       <c r="G325" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="H325" t="s">
-        <v>215</v>
+        <v>1102</v>
       </c>
       <c r="I325" t="s">
         <v>378</v>
@@ -20620,12 +20624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B326" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="2"/>
@@ -20636,13 +20640,13 @@
         <v/>
       </c>
       <c r="F326" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G326" t="s">
         <v>657</v>
       </c>
       <c r="H326" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I326" t="s">
         <v>378</v>
@@ -20672,12 +20676,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B327" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="2"/>
@@ -20688,10 +20692,10 @@
         <v/>
       </c>
       <c r="F327" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G327" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H327" t="s">
         <v>225</v>
@@ -20724,12 +20728,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B328" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="2"/>
@@ -20740,10 +20744,10 @@
         <v/>
       </c>
       <c r="F328" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G328" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H328" t="s">
         <v>215</v>
@@ -20776,12 +20780,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B329" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="2"/>
@@ -20792,7 +20796,7 @@
         <v/>
       </c>
       <c r="F329" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G329" t="s">
         <v>225</v>
@@ -20825,12 +20829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B330" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="2"/>
@@ -20841,7 +20845,7 @@
         <v/>
       </c>
       <c r="F330" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G330" t="s">
         <v>215</v>
@@ -20874,12 +20878,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B331" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="2"/>
@@ -20890,7 +20894,7 @@
         <v/>
       </c>
       <c r="F331" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G331" t="s">
         <v>199</v>
@@ -20923,12 +20927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B332" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="2"/>
@@ -20939,7 +20943,7 @@
         <v/>
       </c>
       <c r="F332" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G332" t="s">
         <v>310</v>
@@ -20972,12 +20976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B333" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="2"/>
@@ -20988,13 +20992,13 @@
         <v/>
       </c>
       <c r="F333" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G333" t="s">
         <v>310</v>
       </c>
       <c r="H333" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I333" t="s">
         <v>21</v>
@@ -21024,12 +21028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B334" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="2"/>
@@ -21040,7 +21044,7 @@
         <v/>
       </c>
       <c r="F334" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G334" t="s">
         <v>310</v>
@@ -21073,12 +21077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B335" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="2"/>
@@ -21089,13 +21093,13 @@
         <v/>
       </c>
       <c r="F335" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G335" t="s">
         <v>310</v>
       </c>
       <c r="H335" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I335" t="s">
         <v>21</v>
@@ -21125,12 +21129,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B336" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="2"/>
@@ -21141,10 +21145,10 @@
         <v/>
       </c>
       <c r="F336" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G336" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H336" t="s">
         <v>339</v>
@@ -21177,12 +21181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B337" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="2"/>
@@ -21193,10 +21197,10 @@
         <v/>
       </c>
       <c r="F337" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G337" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H337" t="s">
         <v>231</v>
@@ -21229,12 +21233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B338" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="2"/>
@@ -21245,10 +21249,10 @@
         <v/>
       </c>
       <c r="F338" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G338" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H338" t="s">
         <v>339</v>
@@ -21281,12 +21285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B339" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="2"/>
@@ -21297,19 +21301,19 @@
         <v/>
       </c>
       <c r="F339" t="s">
+        <v>864</v>
+      </c>
+      <c r="G339" t="s">
+        <v>865</v>
+      </c>
+      <c r="I339" t="s">
+        <v>21</v>
+      </c>
+      <c r="J339" t="s">
+        <v>22</v>
+      </c>
+      <c r="K339" t="s">
         <v>866</v>
-      </c>
-      <c r="G339" t="s">
-        <v>867</v>
-      </c>
-      <c r="I339" t="s">
-        <v>21</v>
-      </c>
-      <c r="J339" t="s">
-        <v>22</v>
-      </c>
-      <c r="K339" t="s">
-        <v>868</v>
       </c>
       <c r="N339" t="b">
         <v>0</v>
@@ -21330,12 +21334,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B340" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="2"/>
@@ -21346,19 +21350,19 @@
         <v/>
       </c>
       <c r="F340" t="s">
+        <v>864</v>
+      </c>
+      <c r="G340" t="s">
+        <v>869</v>
+      </c>
+      <c r="I340" t="s">
+        <v>21</v>
+      </c>
+      <c r="J340" t="s">
+        <v>22</v>
+      </c>
+      <c r="K340" t="s">
         <v>866</v>
-      </c>
-      <c r="G340" t="s">
-        <v>871</v>
-      </c>
-      <c r="I340" t="s">
-        <v>21</v>
-      </c>
-      <c r="J340" t="s">
-        <v>22</v>
-      </c>
-      <c r="K340" t="s">
-        <v>868</v>
       </c>
       <c r="N340" t="b">
         <v>0</v>
@@ -21379,12 +21383,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B341" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="2"/>
@@ -21398,7 +21402,7 @@
         <v>335</v>
       </c>
       <c r="G341" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I341" t="s">
         <v>21</v>
@@ -21428,12 +21432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B342" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="2"/>
@@ -21444,7 +21448,7 @@
         <v/>
       </c>
       <c r="F342" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G342" t="s">
         <v>183</v>
@@ -21477,12 +21481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B343" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="2"/>
@@ -21493,7 +21497,7 @@
         <v/>
       </c>
       <c r="F343" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G343" t="s">
         <v>133</v>
@@ -21526,12 +21530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B344" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="2"/>
@@ -21542,10 +21546,10 @@
         <v/>
       </c>
       <c r="F344" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G344" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I344" t="s">
         <v>21</v>
@@ -21575,12 +21579,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B345" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="2"/>
@@ -21591,10 +21595,10 @@
         <v/>
       </c>
       <c r="F345" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G345" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I345" t="s">
         <v>21</v>
@@ -21627,12 +21631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B346" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="2"/>
@@ -21643,7 +21647,7 @@
         <v/>
       </c>
       <c r="F346" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G346" t="s">
         <v>33</v>
@@ -21679,12 +21683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B347" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="2"/>
@@ -21695,7 +21699,7 @@
         <v/>
       </c>
       <c r="F347" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G347" t="s">
         <v>33</v>
@@ -21731,12 +21735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B348" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="2"/>
@@ -21747,10 +21751,10 @@
         <v/>
       </c>
       <c r="F348" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G348" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I348" t="s">
         <v>21</v>
@@ -21780,12 +21784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B349" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="2"/>
@@ -21796,13 +21800,13 @@
         <v/>
       </c>
       <c r="F349" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G349" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H349" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I349" t="s">
         <v>21</v>
@@ -21832,12 +21836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B350" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="2"/>
@@ -21848,10 +21852,10 @@
         <v/>
       </c>
       <c r="F350" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G350" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I350" t="s">
         <v>21</v>
@@ -21881,12 +21885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B351" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="2"/>
@@ -21897,10 +21901,10 @@
         <v/>
       </c>
       <c r="F351" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G351" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I351" t="s">
         <v>21</v>
@@ -21930,12 +21934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B352" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="2"/>
@@ -21946,10 +21950,10 @@
         <v/>
       </c>
       <c r="F352" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G352" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I352" t="s">
         <v>21</v>
@@ -21979,12 +21983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B353" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="2"/>
@@ -21995,13 +21999,13 @@
         <v/>
       </c>
       <c r="F353" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G353" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H353" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I353" t="s">
         <v>21</v>
@@ -22031,12 +22035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B354" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="2"/>
@@ -22047,7 +22051,7 @@
         <v/>
       </c>
       <c r="F354" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G354" t="s">
         <v>60</v>
@@ -22080,12 +22084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B355" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="2"/>
@@ -22096,7 +22100,7 @@
         <v/>
       </c>
       <c r="F355" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G355" t="s">
         <v>331</v>
@@ -22132,12 +22136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B356" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="2"/>
@@ -22148,7 +22152,7 @@
         <v/>
       </c>
       <c r="F356" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G356" t="s">
         <v>331</v>
@@ -22187,12 +22191,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B357" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="2"/>
@@ -22203,13 +22207,13 @@
         <v/>
       </c>
       <c r="F357" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G357" t="s">
         <v>331</v>
       </c>
       <c r="H357" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I357" t="s">
         <v>21</v>
@@ -22239,12 +22243,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B358" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="2"/>
@@ -22255,13 +22259,13 @@
         <v/>
       </c>
       <c r="F358" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G358" t="s">
         <v>331</v>
       </c>
       <c r="H358" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I358" t="s">
         <v>21</v>
@@ -22294,12 +22298,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B359" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="2"/>
@@ -22310,7 +22314,7 @@
         <v/>
       </c>
       <c r="F359" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G359" t="s">
         <v>331</v>
@@ -22346,12 +22350,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B360" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="2"/>
@@ -22362,7 +22366,7 @@
         <v/>
       </c>
       <c r="F360" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G360" t="s">
         <v>331</v>
@@ -22401,12 +22405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B361" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="2"/>
@@ -22417,13 +22421,13 @@
         <v/>
       </c>
       <c r="F361" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G361" t="s">
         <v>331</v>
       </c>
       <c r="H361" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I361" t="s">
         <v>21</v>
@@ -22453,12 +22457,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B362" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="2"/>
@@ -22469,13 +22473,13 @@
         <v/>
       </c>
       <c r="F362" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G362" t="s">
         <v>331</v>
       </c>
       <c r="H362" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I362" t="s">
         <v>21</v>
@@ -22508,12 +22512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B363" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="2"/>
@@ -22524,10 +22528,10 @@
         <v/>
       </c>
       <c r="F363" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G363" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I363" t="s">
         <v>21</v>
@@ -22557,12 +22561,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B364" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="2"/>
@@ -22573,10 +22577,10 @@
         <v/>
       </c>
       <c r="F364" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G364" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H364" t="s">
         <v>339</v>
@@ -22609,12 +22613,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B365" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" si="2"/>
@@ -22625,10 +22629,10 @@
         <v/>
       </c>
       <c r="F365" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G365" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I365" t="s">
         <v>21</v>
@@ -22658,12 +22662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B366" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="2"/>
@@ -22674,10 +22678,10 @@
         <v/>
       </c>
       <c r="F366" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G366" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I366" t="s">
         <v>21</v>
@@ -22707,12 +22711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B367" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="2"/>
@@ -22723,10 +22727,10 @@
         <v/>
       </c>
       <c r="F367" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G367" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I367" t="s">
         <v>21</v>
@@ -22756,12 +22760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B368" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="2"/>
@@ -22772,10 +22776,10 @@
         <v/>
       </c>
       <c r="F368" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G368" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H368" t="s">
         <v>199</v>
@@ -22808,12 +22812,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B369" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="2"/>
@@ -22824,13 +22828,13 @@
         <v/>
       </c>
       <c r="F369" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G369" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H369" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I369" t="s">
         <v>21</v>
@@ -22860,12 +22864,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B370" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="2"/>
@@ -22876,13 +22880,13 @@
         <v/>
       </c>
       <c r="F370" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G370" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H370" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I370" t="s">
         <v>21</v>
@@ -22912,12 +22916,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B371" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="2"/>
@@ -22928,10 +22932,10 @@
         <v/>
       </c>
       <c r="F371" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G371" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H371" t="s">
         <v>199</v>
@@ -22964,12 +22968,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B372" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="2"/>
@@ -22980,10 +22984,10 @@
         <v/>
       </c>
       <c r="F372" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G372" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I372" t="s">
         <v>21</v>
@@ -23013,12 +23017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B373" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="2"/>
@@ -23029,7 +23033,7 @@
         <v/>
       </c>
       <c r="F373" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G373" t="s">
         <v>199</v>
@@ -23062,12 +23066,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B374" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="2"/>
@@ -23078,10 +23082,10 @@
         <v/>
       </c>
       <c r="F374" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G374" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I374" t="s">
         <v>21</v>
@@ -23111,12 +23115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B375" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="2"/>
@@ -23127,10 +23131,10 @@
         <v/>
       </c>
       <c r="F375" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G375" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I375" t="s">
         <v>21</v>
@@ -23160,12 +23164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B376" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="2"/>
@@ -23176,10 +23180,10 @@
         <v/>
       </c>
       <c r="F376" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G376" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I376" t="s">
         <v>21</v>
@@ -23209,12 +23213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B377" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="2"/>
@@ -23225,10 +23229,10 @@
         <v/>
       </c>
       <c r="F377" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G377" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I377" t="s">
         <v>21</v>
@@ -23261,12 +23265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B378" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="2"/>
@@ -23277,10 +23281,10 @@
         <v/>
       </c>
       <c r="F378" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G378" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I378" t="s">
         <v>21</v>
@@ -23310,12 +23314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B379" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="2"/>
@@ -23326,10 +23330,10 @@
         <v/>
       </c>
       <c r="F379" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G379" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I379" t="s">
         <v>21</v>
@@ -23362,12 +23366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B380" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="2"/>
@@ -23378,10 +23382,10 @@
         <v/>
       </c>
       <c r="F380" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G380" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I380" t="s">
         <v>21</v>
@@ -23411,12 +23415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B381" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="2"/>
@@ -23427,10 +23431,10 @@
         <v/>
       </c>
       <c r="F381" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G381" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I381" t="s">
         <v>21</v>
@@ -23463,12 +23467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B382" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="2"/>
@@ -23479,10 +23483,10 @@
         <v/>
       </c>
       <c r="F382" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G382" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I382" t="s">
         <v>21</v>
@@ -23512,12 +23516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B383" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="2"/>
@@ -23528,10 +23532,10 @@
         <v/>
       </c>
       <c r="F383" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G383" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I383" t="s">
         <v>21</v>
@@ -23561,12 +23565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B384" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="2"/>
@@ -23577,10 +23581,10 @@
         <v/>
       </c>
       <c r="F384" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G384" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I384" t="s">
         <v>21</v>
@@ -23610,12 +23614,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B385" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="2"/>
@@ -23626,7 +23630,7 @@
         <v/>
       </c>
       <c r="F385" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G385" t="s">
         <v>276</v>
@@ -23659,12 +23663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B386" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" si="2"/>
@@ -23675,10 +23679,10 @@
         <v/>
       </c>
       <c r="F386" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G386" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I386" t="s">
         <v>21</v>
@@ -23708,12 +23712,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B387" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="2"/>
@@ -23724,7 +23728,7 @@
         <v/>
       </c>
       <c r="F387" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G387" t="s">
         <v>9</v>
@@ -23760,12 +23764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B388" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="2"/>
@@ -23776,7 +23780,7 @@
         <v/>
       </c>
       <c r="F388" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G388" t="s">
         <v>9</v>
@@ -23812,12 +23816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B389" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="2"/>
@@ -23828,13 +23832,13 @@
         <v/>
       </c>
       <c r="F389" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G389" t="s">
         <v>9</v>
       </c>
       <c r="H389" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I389" t="s">
         <v>21</v>
@@ -23864,12 +23868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B390" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="2"/>
@@ -23880,7 +23884,7 @@
         <v/>
       </c>
       <c r="F390" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G390" t="s">
         <v>9</v>
@@ -23916,12 +23920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B391" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="2"/>
@@ -23932,10 +23936,10 @@
         <v/>
       </c>
       <c r="F391" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G391" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I391" t="s">
         <v>21</v>
@@ -23965,12 +23969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B392" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="2"/>
@@ -23981,13 +23985,13 @@
         <v/>
       </c>
       <c r="F392" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G392" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H392" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I392" t="s">
         <v>21</v>
@@ -24017,12 +24021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B393" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="2"/>
@@ -24033,10 +24037,10 @@
         <v/>
       </c>
       <c r="F393" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G393" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I393" t="s">
         <v>21</v>
@@ -24066,12 +24070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B394" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="2"/>
@@ -24082,13 +24086,13 @@
         <v/>
       </c>
       <c r="F394" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G394" t="s">
         <v>346</v>
       </c>
       <c r="I394" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J394" t="s">
         <v>22</v>
@@ -24115,12 +24119,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B395" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="2"/>
@@ -24131,13 +24135,13 @@
         <v/>
       </c>
       <c r="F395" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G395" t="s">
         <v>12</v>
       </c>
       <c r="I395" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J395" t="s">
         <v>22</v>
@@ -24164,12 +24168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B396" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="2"/>
@@ -24180,13 +24184,13 @@
         <v/>
       </c>
       <c r="F396" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G396" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I396" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J396" t="s">
         <v>22</v>
@@ -24213,12 +24217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B397" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="2"/>
@@ -24229,13 +24233,13 @@
         <v/>
       </c>
       <c r="F397" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G397" t="s">
         <v>346</v>
       </c>
       <c r="I397" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J397" t="s">
         <v>22</v>
@@ -24262,12 +24266,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B398" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="2"/>
@@ -24278,13 +24282,13 @@
         <v/>
       </c>
       <c r="F398" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G398" t="s">
         <v>12</v>
       </c>
       <c r="I398" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J398" t="s">
         <v>22</v>
@@ -24311,12 +24315,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B399" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="2"/>
@@ -24327,13 +24331,13 @@
         <v/>
       </c>
       <c r="F399" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G399" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I399" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J399" t="s">
         <v>22</v>
@@ -24360,12 +24364,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B400" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="2"/>
@@ -24376,13 +24380,13 @@
         <v/>
       </c>
       <c r="F400" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G400" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I400" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J400" t="s">
         <v>22</v>
@@ -24409,12 +24413,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B401" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="2"/>
@@ -24425,22 +24429,22 @@
         <v/>
       </c>
       <c r="F401" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H401" t="s">
         <v>1031</v>
       </c>
-      <c r="G401" t="s">
+      <c r="I401" t="s">
         <v>1032</v>
-      </c>
-      <c r="H401" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I401" t="s">
-        <v>1034</v>
       </c>
       <c r="J401" t="s">
         <v>35</v>
       </c>
       <c r="K401" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N401" t="b">
         <v>0</v>
@@ -24461,12 +24465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B402" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="2"/>
@@ -24477,22 +24481,22 @@
         <v/>
       </c>
       <c r="F402" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G402" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H402" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I402" t="s">
         <v>1032</v>
-      </c>
-      <c r="H402" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I402" t="s">
-        <v>1034</v>
       </c>
       <c r="J402" t="s">
         <v>35</v>
       </c>
       <c r="K402" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N402" t="b">
         <v>0</v>
@@ -24513,12 +24517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B403" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="2"/>
@@ -24529,22 +24533,22 @@
         <v/>
       </c>
       <c r="F403" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G403" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H403" t="s">
         <v>173</v>
       </c>
       <c r="I403" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J403" t="s">
         <v>35</v>
       </c>
       <c r="K403" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N403" t="b">
         <v>0</v>
@@ -24565,12 +24569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B404" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="2"/>
@@ -24581,16 +24585,16 @@
         <v/>
       </c>
       <c r="F404" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H404" t="s">
         <v>1031</v>
       </c>
-      <c r="G404" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H404" t="s">
-        <v>1033</v>
-      </c>
       <c r="I404" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J404" t="s">
         <v>22</v>
@@ -24617,12 +24621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B405" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="2"/>
@@ -24633,16 +24637,16 @@
         <v/>
       </c>
       <c r="F405" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G405" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H405" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I405" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J405" t="s">
         <v>22</v>
@@ -24669,12 +24673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B406" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C406" t="str">
         <f t="shared" si="2"/>
@@ -24685,16 +24689,16 @@
         <v/>
       </c>
       <c r="F406" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G406" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H406" t="s">
         <v>173</v>
       </c>
       <c r="I406" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J406" t="s">
         <v>22</v>
@@ -24721,12 +24725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B407" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C407" t="str">
         <f t="shared" si="2"/>
@@ -24737,22 +24741,22 @@
         <v/>
       </c>
       <c r="F407" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H407" t="s">
         <v>1031</v>
       </c>
-      <c r="G407" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H407" t="s">
-        <v>1033</v>
-      </c>
       <c r="I407" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J407" t="s">
         <v>35</v>
       </c>
       <c r="K407" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N407" t="b">
         <v>0</v>
@@ -24773,12 +24777,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B408" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C408" t="str">
         <f t="shared" si="2"/>
@@ -24789,22 +24793,22 @@
         <v/>
       </c>
       <c r="F408" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G408" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H408" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I408" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J408" t="s">
         <v>35</v>
       </c>
       <c r="K408" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N408" t="b">
         <v>0</v>
@@ -24825,12 +24829,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B409" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C409" t="str">
         <f t="shared" si="2"/>
@@ -24841,22 +24845,22 @@
         <v/>
       </c>
       <c r="F409" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G409" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H409" t="s">
         <v>173</v>
       </c>
       <c r="I409" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J409" t="s">
         <v>35</v>
       </c>
       <c r="K409" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N409" t="b">
         <v>0</v>
@@ -24877,12 +24881,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B410" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C410" t="str">
         <f t="shared" si="2"/>
@@ -24893,22 +24897,22 @@
         <v/>
       </c>
       <c r="F410" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H410" t="s">
         <v>1031</v>
       </c>
-      <c r="G410" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H410" t="s">
-        <v>1033</v>
-      </c>
       <c r="I410" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J410" t="s">
         <v>35</v>
       </c>
       <c r="K410" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N410" t="b">
         <v>0</v>
@@ -24929,12 +24933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B411" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C411" t="str">
         <f t="shared" si="2"/>
@@ -24945,22 +24949,22 @@
         <v/>
       </c>
       <c r="F411" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G411" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H411" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I411" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J411" t="s">
         <v>35</v>
       </c>
       <c r="K411" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N411" t="b">
         <v>0</v>
@@ -24981,12 +24985,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B412" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C412" t="str">
         <f t="shared" si="2"/>
@@ -24997,22 +25001,22 @@
         <v/>
       </c>
       <c r="F412" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G412" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H412" t="s">
         <v>173</v>
       </c>
       <c r="I412" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J412" t="s">
         <v>35</v>
       </c>
       <c r="K412" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N412" t="b">
         <v>0</v>
@@ -25033,12 +25037,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B413" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C413" t="str">
         <f t="shared" si="2"/>
@@ -25049,16 +25053,16 @@
         <v/>
       </c>
       <c r="F413" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H413" t="s">
         <v>1031</v>
       </c>
-      <c r="G413" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H413" t="s">
-        <v>1033</v>
-      </c>
       <c r="I413" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J413" t="s">
         <v>22</v>
@@ -25085,12 +25089,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B414" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C414" t="str">
         <f t="shared" si="2"/>
@@ -25101,16 +25105,16 @@
         <v/>
       </c>
       <c r="F414" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G414" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H414" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I414" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J414" t="s">
         <v>22</v>
@@ -25137,12 +25141,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B415" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C415" t="str">
         <f t="shared" si="2"/>
@@ -25153,16 +25157,16 @@
         <v/>
       </c>
       <c r="F415" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G415" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H415" t="s">
         <v>173</v>
       </c>
       <c r="I415" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J415" t="s">
         <v>22</v>
@@ -25189,12 +25193,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B416" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C416" t="str">
         <f t="shared" si="2"/>
@@ -25205,16 +25209,16 @@
         <v/>
       </c>
       <c r="F416" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H416" t="s">
         <v>1031</v>
       </c>
-      <c r="G416" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H416" t="s">
-        <v>1033</v>
-      </c>
       <c r="I416" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J416" t="s">
         <v>22</v>
@@ -25241,12 +25245,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B417" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C417" t="str">
         <f t="shared" si="2"/>
@@ -25257,16 +25261,16 @@
         <v/>
       </c>
       <c r="F417" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G417" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H417" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I417" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J417" t="s">
         <v>22</v>
@@ -25293,12 +25297,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B418" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C418" t="str">
         <f t="shared" si="2"/>
@@ -25309,16 +25313,16 @@
         <v/>
       </c>
       <c r="F418" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G418" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H418" t="s">
         <v>173</v>
       </c>
       <c r="I418" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J418" t="s">
         <v>22</v>
@@ -25345,12 +25349,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B419" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C419" t="str">
         <f t="shared" si="2"/>
@@ -25361,16 +25365,16 @@
         <v/>
       </c>
       <c r="F419" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H419" t="s">
         <v>1031</v>
       </c>
-      <c r="G419" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H419" t="s">
-        <v>1033</v>
-      </c>
       <c r="I419" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J419" t="s">
         <v>22</v>
@@ -25397,12 +25401,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B420" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C420" t="str">
         <f t="shared" si="2"/>
@@ -25413,16 +25417,16 @@
         <v/>
       </c>
       <c r="F420" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G420" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H420" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I420" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J420" t="s">
         <v>22</v>
@@ -25449,12 +25453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B421" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C421" t="str">
         <f t="shared" si="2"/>
@@ -25465,16 +25469,16 @@
         <v/>
       </c>
       <c r="F421" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G421" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H421" t="s">
         <v>173</v>
       </c>
       <c r="I421" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J421" t="s">
         <v>22</v>
@@ -25501,12 +25505,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B422" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C422" t="str">
         <f t="shared" si="2"/>
@@ -25517,16 +25521,16 @@
         <v/>
       </c>
       <c r="F422" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H422" t="s">
         <v>1031</v>
       </c>
-      <c r="G422" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H422" t="s">
-        <v>1033</v>
-      </c>
       <c r="I422" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J422" t="s">
         <v>22</v>
@@ -25553,12 +25557,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B423" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C423" t="str">
         <f t="shared" si="2"/>
@@ -25569,16 +25573,16 @@
         <v/>
       </c>
       <c r="F423" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G423" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H423" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I423" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J423" t="s">
         <v>22</v>
@@ -25605,12 +25609,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B424" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C424" t="str">
         <f t="shared" si="2"/>
@@ -25621,16 +25625,16 @@
         <v/>
       </c>
       <c r="F424" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G424" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H424" t="s">
         <v>173</v>
       </c>
       <c r="I424" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J424" t="s">
         <v>22</v>
@@ -25657,12 +25661,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B425" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C425" t="str">
         <f t="shared" si="2"/>
@@ -25673,16 +25677,16 @@
         <v/>
       </c>
       <c r="F425" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H425" t="s">
         <v>1031</v>
       </c>
-      <c r="G425" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H425" t="s">
-        <v>1033</v>
-      </c>
       <c r="I425" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J425" t="s">
         <v>22</v>
@@ -25709,12 +25713,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B426" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C426" t="str">
         <f t="shared" si="2"/>
@@ -25725,16 +25729,16 @@
         <v/>
       </c>
       <c r="F426" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G426" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H426" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I426" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J426" t="s">
         <v>22</v>
@@ -25761,12 +25765,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B427" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C427" t="str">
         <f t="shared" si="2"/>
@@ -25777,16 +25781,16 @@
         <v/>
       </c>
       <c r="F427" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G427" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H427" t="s">
         <v>173</v>
       </c>
       <c r="I427" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J427" t="s">
         <v>22</v>
@@ -25813,12 +25817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B428" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C428" t="str">
         <f t="shared" si="2"/>
@@ -25829,16 +25833,16 @@
         <v/>
       </c>
       <c r="F428" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H428" t="s">
         <v>1031</v>
       </c>
-      <c r="G428" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H428" t="s">
-        <v>1033</v>
-      </c>
       <c r="I428" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J428" t="s">
         <v>22</v>
@@ -25865,12 +25869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B429" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C429" t="str">
         <f t="shared" si="2"/>
@@ -25881,16 +25885,16 @@
         <v/>
       </c>
       <c r="F429" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G429" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H429" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I429" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J429" t="s">
         <v>22</v>
@@ -25917,12 +25921,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B430" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C430" t="str">
         <f t="shared" si="2"/>
@@ -25933,16 +25937,16 @@
         <v/>
       </c>
       <c r="F430" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G430" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H430" t="s">
         <v>173</v>
       </c>
       <c r="I430" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J430" t="s">
         <v>22</v>
